--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_1_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_1_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.95555918625866, 50.04599338427251]</t>
+          <t>[49.95559502467271, 50.045957545858464]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.952071819102116, 50.01624285251451]</t>
+          <t>[49.95198635904036, 50.01632831257626]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.994795129945864, 50.0953233723093]</t>
+          <t>[49.99486815256596, 50.09525034968921]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.95809342172169, 50.02384683052784]</t>
+          <t>[49.958091116594275, 50.023849135655254]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_1_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_1_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.95559502467271, 50.045957545858464]</t>
+          <t>[49.95555021073353, 50.04600235979765]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.95198635904036, 50.01632831257626]</t>
+          <t>[49.95203618356219, 50.01627848805443]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.99486815256596, 50.09525034968921]</t>
+          <t>[49.994942436354684, 50.09517606590048]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.958091116594275, 50.023849135655254]</t>
+          <t>[49.95806769584859, 50.02387255640094]</t>
         </is>
       </c>
       <c r="U3" t="n">
